--- a/database/file/体格检查+诊疗经过+出院诊断+出院医嘱.xlsx
+++ b/database/file/体格检查+诊疗经过+出院诊断+出院医嘱.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f26b7379afd139a1/Doctor/项目/同济医院/样本示例/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f26b7379afd139a1/Doctoral/项目/TongJiHospital/database/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E2F339EA19343C4C34D9FB084A8AE19A74BD8D7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E2F339EA19343C4C34D9FB084A8AE19A74BD8D7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5C512FD-257A-C448-A5F3-0A43FBB725EB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>诊疗经过(手术名称、日期、伤口愈合及其他)：患者2024年01月30日09时45分入院，入院后完善相关检查，予以改善情绪及睡眠（文拉法辛150mg QD，右佐匹克隆3mg QN，氯硝西泮0.5mg BID，喹硫平25mg QN）以及心理行为等综合治疗等治疗，患者病情稳定，过程顺利，于2024年02月08日07时30分出院。</t>
-  </si>
-  <si>
-    <t>：1.复发性抑郁障碍，目前为伴有精神病性症状的重度发作2.创伤后应激障碍3.广泛性焦虑障碍4.非器质性睡眠-觉醒节律障碍5.2型糖尿病6.胆囊切除术后状态</t>
   </si>
   <si>
     <t>出院后用药及建议：1、健康宣教：按时服药，定期随访。2、康复指导：坚持生物反馈和放松训练。3、带药：文拉法辛缓释胶囊G75mg/粒*7粒/盒150mg每日一次一次两粒右佐匹克隆片G3mg/片*7片/盒3mg每晚一次一次一片氯硝西泮片G22mg/片*100片/瓶0.5mg每日两次一次四分之一片喹硫平片G425mg/片*28片/盒25mg每晚一次一次一片二甲双胍片G2250mg/片*100片/瓶0.75g每日两次一次三片（餐后口服）自备药：恒格列净片G10mg*10片/盒10mg口服每日一次一次一片（早餐后）沙格列汀片G5mg/片*7片/盒5mg口服每日一次一次一片（早餐后）</t>
@@ -1910,15 +1907,146 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复发性抑郁障碍，目前为伴有精神病性症状的重度发作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创伤后应激障碍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广泛性焦虑障碍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非器质性睡眠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>觉醒节律障碍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型糖尿病</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胆囊切除术后状态</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1939,6 +2067,18 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1961,11 +2101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1973,6 +2113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2463,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y16119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="I10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2475,7 +2616,7 @@
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="255.5" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="63.33203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="19" max="19" width="12.33203125" customWidth="1"/>
     <col min="20" max="20" width="15.1640625" customWidth="1"/>
@@ -2587,7 +2728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" ht="17">
       <c r="A4">
         <v>15516974</v>
       </c>
@@ -2615,11 +2756,11 @@
       <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
-        <v>22</v>
+      <c r="J4" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18">
@@ -2645,16 +2786,16 @@
         <v>28783</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2665,13 +2806,13 @@
         <v>846869</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>44930.388888888898</v>
@@ -2680,16 +2821,16 @@
         <v>14477</v>
       </c>
       <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2700,13 +2841,13 @@
         <v>847885</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>44931.048611111102</v>
@@ -2715,16 +2856,16 @@
         <v>18227</v>
       </c>
       <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18">
@@ -2735,13 +2876,13 @@
         <v>946259</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
         <v>45271.352083333302</v>
@@ -2750,16 +2891,16 @@
         <v>18227</v>
       </c>
       <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="18">
@@ -2770,13 +2911,13 @@
         <v>846919</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1">
         <v>44931.377083333296</v>
@@ -2785,16 +2926,16 @@
         <v>21355</v>
       </c>
       <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" t="s">
         <v>48</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2805,91 +2946,91 @@
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="J11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18">
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
       <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="18">
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
       <c r="J14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="18">
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
       <c r="I15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
         <v>63</v>
       </c>
-      <c r="J15" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="16" spans="1:21" ht="18">
       <c r="F16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2"/>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="6:23" ht="18">
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="I17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="6:23" ht="18">
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="M18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="6:23">
@@ -2900,20 +3041,20 @@
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="I20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="6:23" ht="18">
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="M21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="6:23">
@@ -2930,20 +3071,20 @@
         <v>6</v>
       </c>
       <c r="P23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="W23" t="s">
         <v>74</v>
-      </c>
-      <c r="W23" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="6:23">
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="K24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24">
         <f>400</f>
@@ -2962,17 +3103,17 @@
         <v>40</v>
       </c>
       <c r="Q24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="6:23">
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L25">
         <v>800</v>
@@ -2987,7 +3128,7 @@
         <v>50</v>
       </c>
       <c r="Q25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="6:23">
@@ -3006,98 +3147,98 @@
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
       <c r="H29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s">
         <v>80</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" t="s">
         <v>82</v>
-      </c>
-      <c r="L29" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="6:23" ht="18">
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
       <c r="L30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" t="s">
         <v>84</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>85</v>
       </c>
-      <c r="N30" t="s">
+      <c r="W30" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31" spans="6:23" ht="18">
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="6:23" ht="18">
       <c r="F32" s="1"/>
       <c r="G32" s="2"/>
       <c r="J32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="6:25" ht="18">
       <c r="F33" s="1"/>
       <c r="G33" s="2"/>
       <c r="S33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U33" t="s">
         <v>91</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="V33" s="4" t="s">
+      <c r="W33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="Y33" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="Y33" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34" spans="6:25" ht="18">
       <c r="F34" s="1"/>
       <c r="G34" s="2"/>
       <c r="K34" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="6:25">
       <c r="F35" s="1"/>
       <c r="G35" s="2"/>
       <c r="K35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="6:25" ht="18">
       <c r="F36" s="1"/>
       <c r="G36" s="2"/>
       <c r="W36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="6:25">
@@ -3108,10 +3249,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="2"/>
       <c r="M38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="6:25">
@@ -3122,26 +3263,26 @@
       <c r="F40" s="1"/>
       <c r="G40" s="2"/>
       <c r="L40" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="6:25" ht="18">
       <c r="F41" s="1"/>
       <c r="G41" s="2"/>
       <c r="L41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R41" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="S41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="S41" s="4" t="s">
+      <c r="T41" t="s">
         <v>107</v>
-      </c>
-      <c r="T41" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="6:25" ht="18">
@@ -3149,25 +3290,25 @@
       <c r="G42" s="2"/>
       <c r="R42" s="6"/>
       <c r="S42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="T42" s="4" t="s">
+      <c r="U42" t="s">
         <v>110</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="V42" s="4" t="s">
+      <c r="W42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="W42" s="4" t="s">
+      <c r="X42" t="s">
         <v>113</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="Y42" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="43" spans="6:25" ht="18">
@@ -3175,10 +3316,10 @@
       <c r="G43" s="2"/>
       <c r="R43" s="6"/>
       <c r="S43" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="6:25" ht="18">
@@ -3186,20 +3327,20 @@
       <c r="G44" s="2"/>
       <c r="R44" s="6"/>
       <c r="S44" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="6:25" ht="18">
       <c r="F45" s="1"/>
       <c r="G45" s="2"/>
       <c r="L45" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="6:25">
@@ -3211,7 +3352,7 @@
       <c r="G47" s="2"/>
       <c r="L47" s="4"/>
       <c r="S47" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="6:25">
